--- a/Code/Results/Cases/Case_5_92/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_92/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005187262453263</v>
+        <v>1.029571681496128</v>
       </c>
       <c r="D2">
-        <v>1.021705051660377</v>
+        <v>1.033743402636385</v>
       </c>
       <c r="E2">
-        <v>1.010922129615697</v>
+        <v>1.029389652301257</v>
       </c>
       <c r="F2">
-        <v>1.01149341145828</v>
+        <v>1.040266992574698</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0462937015439</v>
+        <v>1.037072132337225</v>
       </c>
       <c r="J2">
-        <v>1.0272139226549</v>
+        <v>1.034717717581279</v>
       </c>
       <c r="K2">
-        <v>1.032870060788146</v>
+        <v>1.036544873570637</v>
       </c>
       <c r="L2">
-        <v>1.022231370390243</v>
+        <v>1.032203704129455</v>
       </c>
       <c r="M2">
-        <v>1.022794913781313</v>
+        <v>1.043049826529365</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009337332290447</v>
+        <v>1.030437294224545</v>
       </c>
       <c r="D3">
-        <v>1.02471666982516</v>
+        <v>1.034386866247325</v>
       </c>
       <c r="E3">
-        <v>1.014212742588792</v>
+        <v>1.030122665514712</v>
       </c>
       <c r="F3">
-        <v>1.016551507158387</v>
+        <v>1.041397131050844</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047749586544197</v>
+        <v>1.037314751064253</v>
       </c>
       <c r="J3">
-        <v>1.029576648723706</v>
+        <v>1.035224847584768</v>
       </c>
       <c r="K3">
-        <v>1.035042769877455</v>
+        <v>1.036997822719944</v>
       </c>
       <c r="L3">
-        <v>1.024666942011501</v>
+        <v>1.03274505486513</v>
       </c>
       <c r="M3">
-        <v>1.026976899495969</v>
+        <v>1.043989511971094</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011969092953289</v>
+        <v>1.030997761954389</v>
       </c>
       <c r="D4">
-        <v>1.026628714251479</v>
+        <v>1.034803464705816</v>
       </c>
       <c r="E4">
-        <v>1.016305193816506</v>
+        <v>1.0305976660809</v>
       </c>
       <c r="F4">
-        <v>1.019760132317561</v>
+        <v>1.042129094127922</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048662434163303</v>
+        <v>1.037470576502973</v>
       </c>
       <c r="J4">
-        <v>1.03107150563873</v>
+        <v>1.035552712979833</v>
       </c>
       <c r="K4">
-        <v>1.036416035487497</v>
+        <v>1.037290459089609</v>
       </c>
       <c r="L4">
-        <v>1.026210733246262</v>
+        <v>1.033095369938603</v>
       </c>
       <c r="M4">
-        <v>1.029625779036169</v>
+        <v>1.044597657153158</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013063079903735</v>
+        <v>1.031233467242056</v>
       </c>
       <c r="D5">
-        <v>1.027424017394315</v>
+        <v>1.034978657436549</v>
       </c>
       <c r="E5">
-        <v>1.017176331468069</v>
+        <v>1.030797520547336</v>
       </c>
       <c r="F5">
-        <v>1.021094218306789</v>
+        <v>1.042436975643458</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049039365117123</v>
+        <v>1.037535806001302</v>
       </c>
       <c r="J5">
-        <v>1.031692041253461</v>
+        <v>1.035690479237877</v>
       </c>
       <c r="K5">
-        <v>1.036985758818943</v>
+        <v>1.037413374259371</v>
       </c>
       <c r="L5">
-        <v>1.026852264281159</v>
+        <v>1.033242647318055</v>
       </c>
       <c r="M5">
-        <v>1.030726160477583</v>
+        <v>1.044853346207531</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013246049783935</v>
+        <v>1.031273048127765</v>
       </c>
       <c r="D6">
-        <v>1.027557059973501</v>
+        <v>1.035008076236229</v>
       </c>
       <c r="E6">
-        <v>1.017322107079614</v>
+        <v>1.030831086580238</v>
       </c>
       <c r="F6">
-        <v>1.021317364303814</v>
+        <v>1.042488679922713</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049102257520261</v>
+        <v>1.037546741913052</v>
       </c>
       <c r="J6">
-        <v>1.031795775110233</v>
+        <v>1.035713606763405</v>
       </c>
       <c r="K6">
-        <v>1.037080978332977</v>
+        <v>1.037434005828518</v>
       </c>
       <c r="L6">
-        <v>1.026959547994784</v>
+        <v>1.033267376096236</v>
       </c>
       <c r="M6">
-        <v>1.030910158180254</v>
+        <v>1.044896278965147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011983759050239</v>
+        <v>1.031000911128781</v>
       </c>
       <c r="D7">
-        <v>1.026639374274629</v>
+        <v>1.034805805426327</v>
       </c>
       <c r="E7">
-        <v>1.016316867150902</v>
+        <v>1.030600335902565</v>
       </c>
       <c r="F7">
-        <v>1.019778015933653</v>
+        <v>1.04213320741101</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048667497361776</v>
+        <v>1.037471449201763</v>
       </c>
       <c r="J7">
-        <v>1.031079828014462</v>
+        <v>1.035554554089068</v>
       </c>
       <c r="K7">
-        <v>1.036423677737358</v>
+        <v>1.037292101918234</v>
       </c>
       <c r="L7">
-        <v>1.02621933450905</v>
+        <v>1.033097337848132</v>
       </c>
       <c r="M7">
-        <v>1.029640533673954</v>
+        <v>1.044601073585941</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00660116407237</v>
+        <v>1.029864144466255</v>
       </c>
       <c r="D8">
-        <v>1.022730595862504</v>
+        <v>1.033960814788718</v>
       </c>
       <c r="E8">
-        <v>1.012041999219535</v>
+        <v>1.029637233400901</v>
       </c>
       <c r="F8">
-        <v>1.013216487396591</v>
+        <v>1.040648785454986</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046791872494966</v>
+        <v>1.037154367359588</v>
       </c>
       <c r="J8">
-        <v>1.028019598228019</v>
+        <v>1.03488916229305</v>
       </c>
       <c r="K8">
-        <v>1.033611223887319</v>
+        <v>1.036698042880887</v>
       </c>
       <c r="L8">
-        <v>1.023061287649215</v>
+        <v>1.032386650348236</v>
       </c>
       <c r="M8">
-        <v>1.024220360219422</v>
+        <v>1.043367375386739</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9966853382161597</v>
+        <v>1.027863812154422</v>
       </c>
       <c r="D9">
-        <v>1.015549649443267</v>
+        <v>1.032473690618435</v>
       </c>
       <c r="E9">
-        <v>1.004214060703343</v>
+        <v>1.027945487087538</v>
       </c>
       <c r="F9">
-        <v>1.001134428198468</v>
+        <v>1.038038332583194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043255373428947</v>
+        <v>1.036586731325236</v>
       </c>
       <c r="J9">
-        <v>1.022355691166889</v>
+        <v>1.033714541074001</v>
       </c>
       <c r="K9">
-        <v>1.028395383317869</v>
+        <v>1.035647814744175</v>
       </c>
       <c r="L9">
-        <v>1.017239135715933</v>
+        <v>1.031134565551133</v>
       </c>
       <c r="M9">
-        <v>1.014209126870946</v>
+        <v>1.041194275363845</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9897546887316423</v>
+        <v>1.026532204416528</v>
       </c>
       <c r="D10">
-        <v>1.010546994193723</v>
+        <v>1.031483605670783</v>
       </c>
       <c r="E10">
-        <v>0.9987773873164728</v>
+        <v>1.026821347276188</v>
       </c>
       <c r="F10">
-        <v>0.9926894438163024</v>
+        <v>1.036301610413001</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04073063435918</v>
+        <v>1.036202359795733</v>
       </c>
       <c r="J10">
-        <v>1.018380775196181</v>
+        <v>1.032930092430662</v>
       </c>
       <c r="K10">
-        <v>1.024728395237444</v>
+        <v>1.034945418780788</v>
       </c>
       <c r="L10">
-        <v>1.013168751556097</v>
+        <v>1.030300063861964</v>
       </c>
       <c r="M10">
-        <v>1.007191959152787</v>
+        <v>1.039746131714944</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9866703915182519</v>
+        <v>1.025956079271037</v>
       </c>
       <c r="D11">
-        <v>1.008325314335281</v>
+        <v>1.031055220925228</v>
       </c>
       <c r="E11">
-        <v>0.996366797958387</v>
+        <v>1.026335475590907</v>
       </c>
       <c r="F11">
-        <v>0.9889301881972744</v>
+        <v>1.035550443944746</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039594985245814</v>
+        <v>1.0360345191285</v>
       </c>
       <c r="J11">
-        <v>1.016608407401924</v>
+        <v>1.03259010441664</v>
       </c>
       <c r="K11">
-        <v>1.023091916902812</v>
+        <v>1.034640752919968</v>
       </c>
       <c r="L11">
-        <v>1.011357557948552</v>
+        <v>1.029938780843875</v>
       </c>
       <c r="M11">
-        <v>1.004063928578702</v>
+        <v>1.039119214879683</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9855115609657548</v>
+        <v>1.025742152395904</v>
       </c>
       <c r="D12">
-        <v>1.007491342758037</v>
+        <v>1.030896150493732</v>
       </c>
       <c r="E12">
-        <v>0.995462479658504</v>
+        <v>1.026155136088923</v>
       </c>
       <c r="F12">
-        <v>0.9875175147323672</v>
+        <v>1.035271554585177</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039166525339628</v>
+        <v>1.035971965045819</v>
       </c>
       <c r="J12">
-        <v>1.015942011656821</v>
+        <v>1.032463771052387</v>
       </c>
       <c r="K12">
-        <v>1.022476414163473</v>
+        <v>1.034527508666612</v>
       </c>
       <c r="L12">
-        <v>1.0106771307872</v>
+        <v>1.029804594534633</v>
       </c>
       <c r="M12">
-        <v>1.002887831499548</v>
+        <v>1.038886371283173</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9857607420365836</v>
+        <v>1.02578803717695</v>
       </c>
       <c r="D13">
-        <v>1.007670634796054</v>
+        <v>1.030930269323304</v>
       </c>
       <c r="E13">
-        <v>0.9956568698431965</v>
+        <v>1.026193813398063</v>
       </c>
       <c r="F13">
-        <v>0.9878212918813993</v>
+        <v>1.035331371534178</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039258735739195</v>
+        <v>1.035985392629689</v>
       </c>
       <c r="J13">
-        <v>1.016085326679256</v>
+        <v>1.032490872085949</v>
       </c>
       <c r="K13">
-        <v>1.022608792996207</v>
+        <v>1.034551803448914</v>
       </c>
       <c r="L13">
-        <v>1.010823437720319</v>
+        <v>1.029833377471517</v>
       </c>
       <c r="M13">
-        <v>1.00314076392173</v>
+        <v>1.038936316058543</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9865748752558027</v>
+        <v>1.02593839454082</v>
       </c>
       <c r="D14">
-        <v>1.008256558718047</v>
+        <v>1.031042071070793</v>
       </c>
       <c r="E14">
-        <v>0.9962922312598607</v>
+        <v>1.02632056591178</v>
       </c>
       <c r="F14">
-        <v>0.9888137545952984</v>
+        <v>1.035527388264642</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039559705394567</v>
+        <v>1.036029352681278</v>
       </c>
       <c r="J14">
-        <v>1.01655348954144</v>
+        <v>1.032579662608443</v>
       </c>
       <c r="K14">
-        <v>1.023041197150902</v>
+        <v>1.034631393696273</v>
       </c>
       <c r="L14">
-        <v>1.011301472208618</v>
+        <v>1.029927688745906</v>
       </c>
       <c r="M14">
-        <v>1.003967006400271</v>
+        <v>1.039099967520191</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9870747215057939</v>
+        <v>1.026031044202417</v>
       </c>
       <c r="D15">
-        <v>1.008616395044168</v>
+        <v>1.031110962581483</v>
       </c>
       <c r="E15">
-        <v>0.9966825032149504</v>
+        <v>1.026398680233652</v>
       </c>
       <c r="F15">
-        <v>0.9894230527325713</v>
+        <v>1.035648177519571</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039744256332539</v>
+        <v>1.036056410031402</v>
       </c>
       <c r="J15">
-        <v>1.016840860784095</v>
+        <v>1.032634363220978</v>
       </c>
       <c r="K15">
-        <v>1.023306592663089</v>
+        <v>1.034680421593919</v>
       </c>
       <c r="L15">
-        <v>1.011594977794784</v>
+        <v>1.029985798428628</v>
       </c>
       <c r="M15">
-        <v>1.004474175606549</v>
+        <v>1.039200801410827</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9899575723332078</v>
+        <v>1.026570449934688</v>
       </c>
       <c r="D16">
-        <v>1.010693236718313</v>
+        <v>1.031512043195344</v>
       </c>
       <c r="E16">
-        <v>0.9989361439952812</v>
+        <v>1.026853611816103</v>
       </c>
       <c r="F16">
-        <v>0.9929366965583695</v>
+        <v>1.036351480697129</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04080508844268</v>
+        <v>1.036213469266792</v>
       </c>
       <c r="J16">
-        <v>1.018497291882537</v>
+        <v>1.03295264972101</v>
       </c>
       <c r="K16">
-        <v>1.02483595004224</v>
+        <v>1.034965627492416</v>
       </c>
       <c r="L16">
-        <v>1.013287898981003</v>
+        <v>1.030324042413225</v>
       </c>
       <c r="M16">
-        <v>1.007397606444547</v>
+        <v>1.039787741077969</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9917431509584925</v>
+        <v>1.026908931434446</v>
       </c>
       <c r="D17">
-        <v>1.011980850272008</v>
+        <v>1.031763719405702</v>
       </c>
       <c r="E17">
-        <v>1.000334376438108</v>
+        <v>1.027139217199128</v>
       </c>
       <c r="F17">
-        <v>0.9951126386789907</v>
+        <v>1.036792870794718</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041458987927357</v>
+        <v>1.036311612527778</v>
       </c>
       <c r="J17">
-        <v>1.019522367687108</v>
+        <v>1.033152218301413</v>
       </c>
       <c r="K17">
-        <v>1.025782022931002</v>
+        <v>1.035144390026566</v>
       </c>
       <c r="L17">
-        <v>1.014336545363297</v>
+        <v>1.030536231171008</v>
       </c>
       <c r="M17">
-        <v>1.009206907161609</v>
+        <v>1.040155950269002</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9927766612770229</v>
+        <v>1.027106407222543</v>
       </c>
       <c r="D18">
-        <v>1.012726567393627</v>
+        <v>1.031910549491554</v>
       </c>
       <c r="E18">
-        <v>1.001144523600258</v>
+        <v>1.027305891597008</v>
       </c>
       <c r="F18">
-        <v>0.9963720023437607</v>
+        <v>1.037050407750401</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04183632168257</v>
+        <v>1.036368722208207</v>
       </c>
       <c r="J18">
-        <v>1.020115362779848</v>
+        <v>1.033268592673775</v>
       </c>
       <c r="K18">
-        <v>1.026329181039855</v>
+        <v>1.035248608591192</v>
       </c>
       <c r="L18">
-        <v>1.01494353027787</v>
+        <v>1.03066000317043</v>
       </c>
       <c r="M18">
-        <v>1.010253654994828</v>
+        <v>1.04037073384009</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9931277264691</v>
+        <v>1.027173749006574</v>
       </c>
       <c r="D19">
-        <v>1.012979946068326</v>
+        <v>1.031960620076255</v>
       </c>
       <c r="E19">
-        <v>1.001419856532604</v>
+        <v>1.027362737737058</v>
       </c>
       <c r="F19">
-        <v>0.9967997727816995</v>
+        <v>1.037138235026506</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041964299083064</v>
+        <v>1.03638817211297</v>
       </c>
       <c r="J19">
-        <v>1.020316735966147</v>
+        <v>1.033308268109476</v>
       </c>
       <c r="K19">
-        <v>1.026514965411922</v>
+        <v>1.035284135818828</v>
       </c>
       <c r="L19">
-        <v>1.015149714227009</v>
+        <v>1.030702207191249</v>
       </c>
       <c r="M19">
-        <v>1.010609134501868</v>
+        <v>1.040443971745906</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9915524061728621</v>
+        <v>1.026872610884053</v>
       </c>
       <c r="D20">
-        <v>1.011843255252493</v>
+        <v>1.031736713650632</v>
       </c>
       <c r="E20">
-        <v>1.000184922798556</v>
+        <v>1.027108565579138</v>
       </c>
       <c r="F20">
-        <v>0.9948802034955292</v>
+        <v>1.036745505374429</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04138925396649</v>
+        <v>1.03630109670894</v>
       </c>
       <c r="J20">
-        <v>1.019412897632917</v>
+        <v>1.033130809640562</v>
       </c>
       <c r="K20">
-        <v>1.02568100365903</v>
+        <v>1.035125215725398</v>
       </c>
       <c r="L20">
-        <v>1.014224521341113</v>
+        <v>1.030513464709156</v>
       </c>
       <c r="M20">
-        <v>1.009013679747628</v>
+        <v>1.040116443520927</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9863355029330535</v>
+        <v>1.025894116058021</v>
       </c>
       <c r="D21">
-        <v>1.008084263385646</v>
+        <v>1.031009146831148</v>
       </c>
       <c r="E21">
-        <v>0.9961053829674484</v>
+        <v>1.02628323672108</v>
       </c>
       <c r="F21">
-        <v>0.988521957228186</v>
+        <v>1.035469662706571</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039471262478383</v>
+        <v>1.036016413350627</v>
       </c>
       <c r="J21">
-        <v>1.016415852799216</v>
+        <v>1.032553517294054</v>
       </c>
       <c r="K21">
-        <v>1.022914078645016</v>
+        <v>1.034607958492219</v>
       </c>
       <c r="L21">
-        <v>1.011160917638348</v>
+        <v>1.029899916134033</v>
       </c>
       <c r="M21">
-        <v>1.003724097098693</v>
+        <v>1.039051775654698</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9829787750008233</v>
+        <v>1.025279312637348</v>
       </c>
       <c r="D22">
-        <v>1.005670045159677</v>
+        <v>1.030551990919884</v>
       </c>
       <c r="E22">
-        <v>0.9934885810369946</v>
+        <v>1.025765100760674</v>
       </c>
       <c r="F22">
-        <v>0.9844293575170012</v>
+        <v>1.034668226505262</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038226850229223</v>
+        <v>1.035836203507541</v>
       </c>
       <c r="J22">
-        <v>1.014484661989966</v>
+        <v>1.032190281056922</v>
       </c>
       <c r="K22">
-        <v>1.021130008014119</v>
+        <v>1.034282288732933</v>
       </c>
       <c r="L22">
-        <v>1.009190143507755</v>
+        <v>1.029514213829633</v>
       </c>
       <c r="M22">
-        <v>1.000315713853748</v>
+        <v>1.03838249971959</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9847657430887792</v>
+        <v>1.025605191855622</v>
       </c>
       <c r="D23">
-        <v>1.006954823989433</v>
+        <v>1.030794309571312</v>
       </c>
       <c r="E23">
-        <v>0.9948808628444977</v>
+        <v>1.026039699927797</v>
       </c>
       <c r="F23">
-        <v>0.9866082429470519</v>
+        <v>1.035093013079233</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038890275800979</v>
+        <v>1.035931851438255</v>
       </c>
       <c r="J23">
-        <v>1.01551299086681</v>
+        <v>1.032382864721181</v>
       </c>
       <c r="K23">
-        <v>1.022080102983977</v>
+        <v>1.034454974750134</v>
       </c>
       <c r="L23">
-        <v>1.010239236998858</v>
+        <v>1.029718675888796</v>
       </c>
       <c r="M23">
-        <v>1.002130659159434</v>
+        <v>1.038737283775146</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.991638620165699</v>
+        <v>1.026889022437627</v>
       </c>
       <c r="D24">
-        <v>1.011905444949258</v>
+        <v>1.031748916291379</v>
       </c>
       <c r="E24">
-        <v>1.000252471177662</v>
+        <v>1.027122415462465</v>
       </c>
       <c r="F24">
-        <v>0.9949852612499741</v>
+        <v>1.036766907516877</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041420776315252</v>
+        <v>1.036305848773918</v>
       </c>
       <c r="J24">
-        <v>1.019462377598298</v>
+        <v>1.033140483387516</v>
       </c>
       <c r="K24">
-        <v>1.025726664327875</v>
+        <v>1.035133879923169</v>
       </c>
       <c r="L24">
-        <v>1.014275154589388</v>
+        <v>1.030523751875208</v>
       </c>
       <c r="M24">
-        <v>1.009101017378958</v>
+        <v>1.040134294878429</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9993028963856919</v>
+        <v>1.028380607751556</v>
       </c>
       <c r="D25">
-        <v>1.017442648646587</v>
+        <v>1.032857919259744</v>
       </c>
       <c r="E25">
-        <v>1.006274688600246</v>
+        <v>1.028382199703994</v>
       </c>
       <c r="F25">
-        <v>1.004323561596605</v>
+        <v>1.038712568059988</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044198203374912</v>
+        <v>1.036734529668756</v>
       </c>
       <c r="J25">
-        <v>1.023853743644403</v>
+        <v>1.034018453912147</v>
       </c>
       <c r="K25">
-        <v>1.029776092488156</v>
+        <v>1.035919723463689</v>
       </c>
       <c r="L25">
-        <v>1.018776372802581</v>
+        <v>1.03145822496993</v>
       </c>
       <c r="M25">
-        <v>1.016855128569965</v>
+        <v>1.041755972015163</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_92/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_92/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029571681496128</v>
+        <v>1.005187262453262</v>
       </c>
       <c r="D2">
-        <v>1.033743402636385</v>
+        <v>1.021705051660376</v>
       </c>
       <c r="E2">
-        <v>1.029389652301257</v>
+        <v>1.010922129615696</v>
       </c>
       <c r="F2">
-        <v>1.040266992574698</v>
+        <v>1.011493411458279</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037072132337225</v>
+        <v>1.0462937015439</v>
       </c>
       <c r="J2">
-        <v>1.034717717581279</v>
+        <v>1.027213922654899</v>
       </c>
       <c r="K2">
-        <v>1.036544873570637</v>
+        <v>1.032870060788145</v>
       </c>
       <c r="L2">
-        <v>1.032203704129455</v>
+        <v>1.022231370390242</v>
       </c>
       <c r="M2">
-        <v>1.043049826529365</v>
+        <v>1.022794913781312</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030437294224545</v>
+        <v>1.009337332290447</v>
       </c>
       <c r="D3">
-        <v>1.034386866247325</v>
+        <v>1.02471666982516</v>
       </c>
       <c r="E3">
-        <v>1.030122665514712</v>
+        <v>1.014212742588792</v>
       </c>
       <c r="F3">
-        <v>1.041397131050844</v>
+        <v>1.016551507158387</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037314751064253</v>
+        <v>1.047749586544197</v>
       </c>
       <c r="J3">
-        <v>1.035224847584768</v>
+        <v>1.029576648723706</v>
       </c>
       <c r="K3">
-        <v>1.036997822719944</v>
+        <v>1.035042769877455</v>
       </c>
       <c r="L3">
-        <v>1.03274505486513</v>
+        <v>1.024666942011501</v>
       </c>
       <c r="M3">
-        <v>1.043989511971094</v>
+        <v>1.026976899495969</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030997761954389</v>
+        <v>1.011969092953288</v>
       </c>
       <c r="D4">
-        <v>1.034803464705816</v>
+        <v>1.026628714251477</v>
       </c>
       <c r="E4">
-        <v>1.0305976660809</v>
+        <v>1.016305193816505</v>
       </c>
       <c r="F4">
-        <v>1.042129094127922</v>
+        <v>1.01976013231756</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037470576502973</v>
+        <v>1.048662434163302</v>
       </c>
       <c r="J4">
-        <v>1.035552712979833</v>
+        <v>1.031071505638729</v>
       </c>
       <c r="K4">
-        <v>1.037290459089609</v>
+        <v>1.036416035487495</v>
       </c>
       <c r="L4">
-        <v>1.033095369938603</v>
+        <v>1.026210733246261</v>
       </c>
       <c r="M4">
-        <v>1.044597657153158</v>
+        <v>1.029625779036168</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031233467242056</v>
+        <v>1.013063079903736</v>
       </c>
       <c r="D5">
-        <v>1.034978657436549</v>
+        <v>1.027424017394316</v>
       </c>
       <c r="E5">
-        <v>1.030797520547336</v>
+        <v>1.017176331468071</v>
       </c>
       <c r="F5">
-        <v>1.042436975643458</v>
+        <v>1.02109421830679</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037535806001302</v>
+        <v>1.049039365117123</v>
       </c>
       <c r="J5">
-        <v>1.035690479237877</v>
+        <v>1.031692041253462</v>
       </c>
       <c r="K5">
-        <v>1.037413374259371</v>
+        <v>1.036985758818944</v>
       </c>
       <c r="L5">
-        <v>1.033242647318055</v>
+        <v>1.026852264281161</v>
       </c>
       <c r="M5">
-        <v>1.044853346207531</v>
+        <v>1.030726160477584</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031273048127765</v>
+        <v>1.013246049783933</v>
       </c>
       <c r="D6">
-        <v>1.035008076236229</v>
+        <v>1.0275570599735</v>
       </c>
       <c r="E6">
-        <v>1.030831086580238</v>
+        <v>1.017322107079613</v>
       </c>
       <c r="F6">
-        <v>1.042488679922713</v>
+        <v>1.021317364303813</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037546741913052</v>
+        <v>1.04910225752026</v>
       </c>
       <c r="J6">
-        <v>1.035713606763405</v>
+        <v>1.031795775110232</v>
       </c>
       <c r="K6">
-        <v>1.037434005828518</v>
+        <v>1.037080978332976</v>
       </c>
       <c r="L6">
-        <v>1.033267376096236</v>
+        <v>1.026959547994783</v>
       </c>
       <c r="M6">
-        <v>1.044896278965147</v>
+        <v>1.030910158180253</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031000911128781</v>
+        <v>1.011983759050238</v>
       </c>
       <c r="D7">
-        <v>1.034805805426327</v>
+        <v>1.026639374274629</v>
       </c>
       <c r="E7">
-        <v>1.030600335902565</v>
+        <v>1.016316867150901</v>
       </c>
       <c r="F7">
-        <v>1.04213320741101</v>
+        <v>1.019778015933653</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037471449201763</v>
+        <v>1.048667497361775</v>
       </c>
       <c r="J7">
-        <v>1.035554554089068</v>
+        <v>1.03107982801446</v>
       </c>
       <c r="K7">
-        <v>1.037292101918234</v>
+        <v>1.036423677737357</v>
       </c>
       <c r="L7">
-        <v>1.033097337848132</v>
+        <v>1.026219334509049</v>
       </c>
       <c r="M7">
-        <v>1.044601073585941</v>
+        <v>1.029640533673953</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029864144466255</v>
+        <v>1.00660116407237</v>
       </c>
       <c r="D8">
-        <v>1.033960814788718</v>
+        <v>1.022730595862504</v>
       </c>
       <c r="E8">
-        <v>1.029637233400901</v>
+        <v>1.012041999219535</v>
       </c>
       <c r="F8">
-        <v>1.040648785454986</v>
+        <v>1.013216487396591</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037154367359588</v>
+        <v>1.046791872494966</v>
       </c>
       <c r="J8">
-        <v>1.03488916229305</v>
+        <v>1.028019598228019</v>
       </c>
       <c r="K8">
-        <v>1.036698042880887</v>
+        <v>1.033611223887318</v>
       </c>
       <c r="L8">
-        <v>1.032386650348236</v>
+        <v>1.023061287649214</v>
       </c>
       <c r="M8">
-        <v>1.043367375386739</v>
+        <v>1.024220360219422</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027863812154422</v>
+        <v>0.9966853382161605</v>
       </c>
       <c r="D9">
-        <v>1.032473690618435</v>
+        <v>1.015549649443268</v>
       </c>
       <c r="E9">
-        <v>1.027945487087538</v>
+        <v>1.004214060703343</v>
       </c>
       <c r="F9">
-        <v>1.038038332583194</v>
+        <v>1.001134428198469</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036586731325236</v>
+        <v>1.043255373428948</v>
       </c>
       <c r="J9">
-        <v>1.033714541074001</v>
+        <v>1.02235569116689</v>
       </c>
       <c r="K9">
-        <v>1.035647814744175</v>
+        <v>1.028395383317869</v>
       </c>
       <c r="L9">
-        <v>1.031134565551133</v>
+        <v>1.017239135715934</v>
       </c>
       <c r="M9">
-        <v>1.041194275363845</v>
+        <v>1.014209126870947</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026532204416528</v>
+        <v>0.9897546887316422</v>
       </c>
       <c r="D10">
-        <v>1.031483605670783</v>
+        <v>1.010546994193723</v>
       </c>
       <c r="E10">
-        <v>1.026821347276188</v>
+        <v>0.9987773873164726</v>
       </c>
       <c r="F10">
-        <v>1.036301610413001</v>
+        <v>0.9926894438163024</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036202359795733</v>
+        <v>1.04073063435918</v>
       </c>
       <c r="J10">
-        <v>1.032930092430662</v>
+        <v>1.018380775196181</v>
       </c>
       <c r="K10">
-        <v>1.034945418780788</v>
+        <v>1.024728395237444</v>
       </c>
       <c r="L10">
-        <v>1.030300063861964</v>
+        <v>1.013168751556097</v>
       </c>
       <c r="M10">
-        <v>1.039746131714944</v>
+        <v>1.007191959152787</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025956079271037</v>
+        <v>0.9866703915182509</v>
       </c>
       <c r="D11">
-        <v>1.031055220925228</v>
+        <v>1.008325314335281</v>
       </c>
       <c r="E11">
-        <v>1.026335475590907</v>
+        <v>0.9963667979583865</v>
       </c>
       <c r="F11">
-        <v>1.035550443944746</v>
+        <v>0.9889301881972737</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0360345191285</v>
+        <v>1.039594985245813</v>
       </c>
       <c r="J11">
-        <v>1.03259010441664</v>
+        <v>1.016608407401923</v>
       </c>
       <c r="K11">
-        <v>1.034640752919968</v>
+        <v>1.023091916902812</v>
       </c>
       <c r="L11">
-        <v>1.029938780843875</v>
+        <v>1.011357557948552</v>
       </c>
       <c r="M11">
-        <v>1.039119214879683</v>
+        <v>1.004063928578701</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025742152395904</v>
+        <v>0.9855115609657557</v>
       </c>
       <c r="D12">
-        <v>1.030896150493732</v>
+        <v>1.007491342758038</v>
       </c>
       <c r="E12">
-        <v>1.026155136088923</v>
+        <v>0.9954624796585045</v>
       </c>
       <c r="F12">
-        <v>1.035271554585177</v>
+        <v>0.987517514732368</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035971965045819</v>
+        <v>1.039166525339629</v>
       </c>
       <c r="J12">
-        <v>1.032463771052387</v>
+        <v>1.015942011656822</v>
       </c>
       <c r="K12">
-        <v>1.034527508666612</v>
+        <v>1.022476414163474</v>
       </c>
       <c r="L12">
-        <v>1.029804594534633</v>
+        <v>1.0106771307872</v>
       </c>
       <c r="M12">
-        <v>1.038886371283173</v>
+        <v>1.002887831499548</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02578803717695</v>
+        <v>0.9857607420365839</v>
       </c>
       <c r="D13">
-        <v>1.030930269323304</v>
+        <v>1.007670634796054</v>
       </c>
       <c r="E13">
-        <v>1.026193813398063</v>
+        <v>0.9956568698431969</v>
       </c>
       <c r="F13">
-        <v>1.035331371534178</v>
+        <v>0.9878212918813996</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035985392629689</v>
+        <v>1.039258735739195</v>
       </c>
       <c r="J13">
-        <v>1.032490872085949</v>
+        <v>1.016085326679257</v>
       </c>
       <c r="K13">
-        <v>1.034551803448914</v>
+        <v>1.022608792996207</v>
       </c>
       <c r="L13">
-        <v>1.029833377471517</v>
+        <v>1.010823437720319</v>
       </c>
       <c r="M13">
-        <v>1.038936316058543</v>
+        <v>1.00314076392173</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02593839454082</v>
+        <v>0.9865748752558021</v>
       </c>
       <c r="D14">
-        <v>1.031042071070793</v>
+        <v>1.008256558718046</v>
       </c>
       <c r="E14">
-        <v>1.02632056591178</v>
+        <v>0.99629223125986</v>
       </c>
       <c r="F14">
-        <v>1.035527388264642</v>
+        <v>0.9888137545952981</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036029352681278</v>
+        <v>1.039559705394567</v>
       </c>
       <c r="J14">
-        <v>1.032579662608443</v>
+        <v>1.01655348954144</v>
       </c>
       <c r="K14">
-        <v>1.034631393696273</v>
+        <v>1.023041197150901</v>
       </c>
       <c r="L14">
-        <v>1.029927688745906</v>
+        <v>1.011301472208618</v>
       </c>
       <c r="M14">
-        <v>1.039099967520191</v>
+        <v>1.003967006400271</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026031044202417</v>
+        <v>0.9870747215057941</v>
       </c>
       <c r="D15">
-        <v>1.031110962581483</v>
+        <v>1.008616395044168</v>
       </c>
       <c r="E15">
-        <v>1.026398680233652</v>
+        <v>0.9966825032149507</v>
       </c>
       <c r="F15">
-        <v>1.035648177519571</v>
+        <v>0.9894230527325718</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036056410031402</v>
+        <v>1.039744256332539</v>
       </c>
       <c r="J15">
-        <v>1.032634363220978</v>
+        <v>1.016840860784096</v>
       </c>
       <c r="K15">
-        <v>1.034680421593919</v>
+        <v>1.023306592663089</v>
       </c>
       <c r="L15">
-        <v>1.029985798428628</v>
+        <v>1.011594977794785</v>
       </c>
       <c r="M15">
-        <v>1.039200801410827</v>
+        <v>1.004474175606549</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026570449934688</v>
+        <v>0.9899575723332075</v>
       </c>
       <c r="D16">
-        <v>1.031512043195344</v>
+        <v>1.010693236718313</v>
       </c>
       <c r="E16">
-        <v>1.026853611816103</v>
+        <v>0.9989361439952807</v>
       </c>
       <c r="F16">
-        <v>1.036351480697129</v>
+        <v>0.9929366965583694</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036213469266792</v>
+        <v>1.04080508844268</v>
       </c>
       <c r="J16">
-        <v>1.03295264972101</v>
+        <v>1.018497291882537</v>
       </c>
       <c r="K16">
-        <v>1.034965627492416</v>
+        <v>1.02483595004224</v>
       </c>
       <c r="L16">
-        <v>1.030324042413225</v>
+        <v>1.013287898981002</v>
       </c>
       <c r="M16">
-        <v>1.039787741077969</v>
+        <v>1.007397606444547</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026908931434446</v>
+        <v>0.9917431509584914</v>
       </c>
       <c r="D17">
-        <v>1.031763719405702</v>
+        <v>1.011980850272006</v>
       </c>
       <c r="E17">
-        <v>1.027139217199128</v>
+        <v>1.000334376438107</v>
       </c>
       <c r="F17">
-        <v>1.036792870794718</v>
+        <v>0.9951126386789897</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036311612527778</v>
+        <v>1.041458987927357</v>
       </c>
       <c r="J17">
-        <v>1.033152218301413</v>
+        <v>1.019522367687107</v>
       </c>
       <c r="K17">
-        <v>1.035144390026566</v>
+        <v>1.025782022931001</v>
       </c>
       <c r="L17">
-        <v>1.030536231171008</v>
+        <v>1.014336545363296</v>
       </c>
       <c r="M17">
-        <v>1.040155950269002</v>
+        <v>1.009206907161607</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027106407222543</v>
+        <v>0.9927766612770228</v>
       </c>
       <c r="D18">
-        <v>1.031910549491554</v>
+        <v>1.012726567393626</v>
       </c>
       <c r="E18">
-        <v>1.027305891597008</v>
+        <v>1.001144523600258</v>
       </c>
       <c r="F18">
-        <v>1.037050407750401</v>
+        <v>0.9963720023437606</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036368722208207</v>
+        <v>1.04183632168257</v>
       </c>
       <c r="J18">
-        <v>1.033268592673775</v>
+        <v>1.020115362779848</v>
       </c>
       <c r="K18">
-        <v>1.035248608591192</v>
+        <v>1.026329181039854</v>
       </c>
       <c r="L18">
-        <v>1.03066000317043</v>
+        <v>1.01494353027787</v>
       </c>
       <c r="M18">
-        <v>1.04037073384009</v>
+        <v>1.010253654994828</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027173749006574</v>
+        <v>0.993127726469099</v>
       </c>
       <c r="D19">
-        <v>1.031960620076255</v>
+        <v>1.012979946068325</v>
       </c>
       <c r="E19">
-        <v>1.027362737737058</v>
+        <v>1.001419856532603</v>
       </c>
       <c r="F19">
-        <v>1.037138235026506</v>
+        <v>0.9967997727816983</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03638817211297</v>
+        <v>1.041964299083063</v>
       </c>
       <c r="J19">
-        <v>1.033308268109476</v>
+        <v>1.020316735966146</v>
       </c>
       <c r="K19">
-        <v>1.035284135818828</v>
+        <v>1.026514965411921</v>
       </c>
       <c r="L19">
-        <v>1.030702207191249</v>
+        <v>1.015149714227008</v>
       </c>
       <c r="M19">
-        <v>1.040443971745906</v>
+        <v>1.010609134501867</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026872610884053</v>
+        <v>0.9915524061728626</v>
       </c>
       <c r="D20">
-        <v>1.031736713650632</v>
+        <v>1.011843255252493</v>
       </c>
       <c r="E20">
-        <v>1.027108565579138</v>
+        <v>1.000184922798557</v>
       </c>
       <c r="F20">
-        <v>1.036745505374429</v>
+        <v>0.9948802034955297</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03630109670894</v>
+        <v>1.04138925396649</v>
       </c>
       <c r="J20">
-        <v>1.033130809640562</v>
+        <v>1.019412897632918</v>
       </c>
       <c r="K20">
-        <v>1.035125215725398</v>
+        <v>1.02568100365903</v>
       </c>
       <c r="L20">
-        <v>1.030513464709156</v>
+        <v>1.014224521341113</v>
       </c>
       <c r="M20">
-        <v>1.040116443520927</v>
+        <v>1.009013679747628</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025894116058021</v>
+        <v>0.9863355029330536</v>
       </c>
       <c r="D21">
-        <v>1.031009146831148</v>
+        <v>1.008084263385647</v>
       </c>
       <c r="E21">
-        <v>1.02628323672108</v>
+        <v>0.9961053829674483</v>
       </c>
       <c r="F21">
-        <v>1.035469662706571</v>
+        <v>0.9885219572281863</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036016413350627</v>
+        <v>1.039471262478383</v>
       </c>
       <c r="J21">
-        <v>1.032553517294054</v>
+        <v>1.016415852799216</v>
       </c>
       <c r="K21">
-        <v>1.034607958492219</v>
+        <v>1.022914078645016</v>
       </c>
       <c r="L21">
-        <v>1.029899916134033</v>
+        <v>1.011160917638348</v>
       </c>
       <c r="M21">
-        <v>1.039051775654698</v>
+        <v>1.003724097098693</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025279312637348</v>
+        <v>0.9829787750008235</v>
       </c>
       <c r="D22">
-        <v>1.030551990919884</v>
+        <v>1.005670045159677</v>
       </c>
       <c r="E22">
-        <v>1.025765100760674</v>
+        <v>0.9934885810369948</v>
       </c>
       <c r="F22">
-        <v>1.034668226505262</v>
+        <v>0.9844293575170014</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035836203507541</v>
+        <v>1.038226850229223</v>
       </c>
       <c r="J22">
-        <v>1.032190281056922</v>
+        <v>1.014484661989966</v>
       </c>
       <c r="K22">
-        <v>1.034282288732933</v>
+        <v>1.02113000801412</v>
       </c>
       <c r="L22">
-        <v>1.029514213829633</v>
+        <v>1.009190143507755</v>
       </c>
       <c r="M22">
-        <v>1.03838249971959</v>
+        <v>1.000315713853748</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025605191855622</v>
+        <v>0.9847657430887782</v>
       </c>
       <c r="D23">
-        <v>1.030794309571312</v>
+        <v>1.006954823989432</v>
       </c>
       <c r="E23">
-        <v>1.026039699927797</v>
+        <v>0.9948808628444967</v>
       </c>
       <c r="F23">
-        <v>1.035093013079233</v>
+        <v>0.986608242947051</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035931851438255</v>
+        <v>1.038890275800978</v>
       </c>
       <c r="J23">
-        <v>1.032382864721181</v>
+        <v>1.015512990866809</v>
       </c>
       <c r="K23">
-        <v>1.034454974750134</v>
+        <v>1.022080102983976</v>
       </c>
       <c r="L23">
-        <v>1.029718675888796</v>
+        <v>1.010239236998857</v>
       </c>
       <c r="M23">
-        <v>1.038737283775146</v>
+        <v>1.002130659159433</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026889022437627</v>
+        <v>0.9916386201656988</v>
       </c>
       <c r="D24">
-        <v>1.031748916291379</v>
+        <v>1.011905444949257</v>
       </c>
       <c r="E24">
-        <v>1.027122415462465</v>
+        <v>1.000252471177662</v>
       </c>
       <c r="F24">
-        <v>1.036766907516877</v>
+        <v>0.9949852612499743</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036305848773918</v>
+        <v>1.041420776315252</v>
       </c>
       <c r="J24">
-        <v>1.033140483387516</v>
+        <v>1.019462377598298</v>
       </c>
       <c r="K24">
-        <v>1.035133879923169</v>
+        <v>1.025726664327875</v>
       </c>
       <c r="L24">
-        <v>1.030523751875208</v>
+        <v>1.014275154589388</v>
       </c>
       <c r="M24">
-        <v>1.040134294878429</v>
+        <v>1.009101017378958</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028380607751556</v>
+        <v>0.9993028963856924</v>
       </c>
       <c r="D25">
-        <v>1.032857919259744</v>
+        <v>1.017442648646587</v>
       </c>
       <c r="E25">
-        <v>1.028382199703994</v>
+        <v>1.006274688600246</v>
       </c>
       <c r="F25">
-        <v>1.038712568059988</v>
+        <v>1.004323561596606</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036734529668756</v>
+        <v>1.044198203374912</v>
       </c>
       <c r="J25">
-        <v>1.034018453912147</v>
+        <v>1.023853743644403</v>
       </c>
       <c r="K25">
-        <v>1.035919723463689</v>
+        <v>1.029776092488156</v>
       </c>
       <c r="L25">
-        <v>1.03145822496993</v>
+        <v>1.018776372802581</v>
       </c>
       <c r="M25">
-        <v>1.041755972015163</v>
+        <v>1.016855128569966</v>
       </c>
     </row>
   </sheetData>
